--- a/depozitiSTB.xlsx
+++ b/depozitiSTB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\React-Plus\NBRM CREDIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38531FBC-0642-4468-A128-10BE86B17D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9F7BCE-4E45-4215-B217-5A961A25ECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{30D3EA2A-2539-4497-A6BB-610141DD767C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30D3EA2A-2539-4497-A6BB-610141DD767C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="16">
   <si>
     <t>Валута</t>
   </si>
@@ -75,6 +75,15 @@
     <t xml:space="preserve"> - месечна капитализација на каматата кон вогот или
  - без капитализација на камата, со месечна исплата на камата
 без можност за превремено повлекување средства, без можност за дополнителна уплата на средства</t>
+  </si>
+  <si>
+    <t>ДЕН</t>
+  </si>
+  <si>
+    <t>ЕУР</t>
+  </si>
+  <si>
+    <t>УСД</t>
   </si>
 </sst>
 </file>
@@ -153,15 +162,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -481,7 +488,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,8 +530,8 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -547,8 +554,8 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
@@ -571,8 +578,8 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>4</v>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -595,8 +602,8 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -619,8 +626,8 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
-        <v>2</v>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -643,8 +650,8 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>4</v>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -667,8 +674,8 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
@@ -691,8 +698,8 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -715,8 +722,8 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
-        <v>4</v>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -739,8 +746,8 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
@@ -763,8 +770,8 @@
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <v>2</v>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -787,8 +794,8 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
-        <v>4</v>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -805,22 +812,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>0.46</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -828,22 +835,22 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>0.23</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -851,22 +858,22 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
         <v>18</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>0.9</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -874,22 +881,22 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
         <v>18</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>0.36</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -897,19 +904,19 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1">
         <v>24</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -920,19 +927,19 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
         <v>24</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>0.4</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -943,19 +950,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1">
         <v>24</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>0.2</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -966,19 +973,19 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1">
         <v>36</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>1.3</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -989,19 +996,19 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1">
         <v>36</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <v>0.5</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1012,19 +1019,19 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1">
         <v>36</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <v>0.3</v>
       </c>
       <c r="G23" s="1" t="s">

--- a/depozitiSTB.xlsx
+++ b/depozitiSTB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\React-Plus\NBRM CREDIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\excelToSend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9F7BCE-4E45-4215-B217-5A961A25ECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30D3EA2A-2539-4497-A6BB-610141DD767C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="14">
   <si>
     <t>Валута</t>
   </si>
@@ -78,18 +77,12 @@
   </si>
   <si>
     <t>ДЕН</t>
-  </si>
-  <si>
-    <t>ЕУР</t>
-  </si>
-  <si>
-    <t>УСД</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +166,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E71440FC-B66E-40A3-855A-E6F510C0AAA6}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,20 +477,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EF7C2F-C182-4771-86A7-BE3F6AF41BE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -523,7 +516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -547,7 +540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -555,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
@@ -571,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -579,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -595,7 +588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -619,7 +612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -627,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -643,7 +636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -651,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -667,7 +660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -691,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -699,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -715,7 +708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -723,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -739,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -763,7 +756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -771,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -787,7 +780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -795,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -811,7 +804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -834,7 +827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1">
         <v>12</v>
@@ -857,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,7 +873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1">
         <v>18</v>
@@ -903,7 +896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,7 +919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1">
         <v>24</v>
@@ -949,7 +942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1">
         <v>24</v>
@@ -972,7 +965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -995,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +996,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1">
         <v>36</v>
@@ -1018,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1">
         <v>36</v>

--- a/depozitiSTB.xlsx
+++ b/depozitiSTB.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="16">
   <si>
     <t>Валута</t>
   </si>
@@ -77,19 +77,32 @@
   </si>
   <si>
     <t>ДЕН</t>
+  </si>
+  <si>
+    <t>ДЕННННН</t>
+  </si>
+  <si>
+    <t>дсадсадса</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,19 +162,20 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -481,13 +495,15 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" customWidth="1"/>
+    <col min="7" max="7" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -523,8 +539,8 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -578,8 +594,8 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.01</v>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -620,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -716,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -812,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
         <v>12</v>
@@ -927,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1">
         <v>24</v>

--- a/depozitiSTB.xlsx
+++ b/depozitiSTB.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\excelToSend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\React-Plus\NBRM CREDIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9F7BCE-4E45-4215-B217-5A961A25ECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30D3EA2A-2539-4497-A6BB-610141DD767C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="16">
   <si>
     <t>Валута</t>
   </si>
@@ -79,30 +80,23 @@
     <t>ДЕН</t>
   </si>
   <si>
-    <t>ДЕННННН</t>
-  </si>
-  <si>
-    <t>дсадсадса</t>
+    <t>ЕУР</t>
+  </si>
+  <si>
+    <t>УСД</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,25 +156,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E71440FC-B66E-40A3-855A-E6F510C0AAA6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,22 +484,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EF7C2F-C182-4771-86A7-BE3F6AF41BE2}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="57.7109375" customWidth="1"/>
-    <col min="7" max="7" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -532,15 +523,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -556,7 +547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -564,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
@@ -580,7 +571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -588,14 +579,14 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
+      <c r="F4" s="1">
+        <v>0.01</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -604,7 +595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -628,7 +619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -652,7 +643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -676,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -700,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -708,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -724,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -732,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -748,7 +739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -772,7 +763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -796,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -804,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -820,7 +811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -828,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <v>12</v>
@@ -843,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -851,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1">
         <v>12</v>
@@ -866,7 +857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,7 +880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -897,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1">
         <v>18</v>
@@ -912,7 +903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,7 +926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1">
         <v>24</v>
@@ -981,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1">
         <v>36</v>
@@ -1027,7 +1018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1">
         <v>36</v>

--- a/depozitiSTB.xlsx
+++ b/depozitiSTB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\React-Plus\NBRM CREDIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9F7BCE-4E45-4215-B217-5A961A25ECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A725729A-9FC2-4D18-AD33-731F4EC4C433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30D3EA2A-2539-4497-A6BB-610141DD767C}"/>
   </bookViews>
@@ -162,13 +162,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -488,7 +489,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +534,9 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>2500</v>
+      </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -557,7 +560,9 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>500</v>
+      </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -581,7 +586,9 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>300</v>
+      </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
@@ -605,7 +612,9 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>2500</v>
+      </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
@@ -629,7 +638,9 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
@@ -653,7 +664,9 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
@@ -677,7 +690,9 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>2500</v>
+      </c>
       <c r="E8" s="1">
         <v>6</v>
       </c>
@@ -701,7 +716,9 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>500</v>
+      </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
@@ -725,7 +742,9 @@
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>300</v>
+      </c>
       <c r="E10" s="1">
         <v>6</v>
       </c>
@@ -749,7 +768,9 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>2500</v>
+      </c>
       <c r="E11" s="1">
         <v>12</v>
       </c>
@@ -773,7 +794,9 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>500</v>
+      </c>
       <c r="E12" s="1">
         <v>12</v>
       </c>
@@ -797,7 +820,9 @@
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>300</v>
+      </c>
       <c r="E13" s="1">
         <v>12</v>
       </c>
@@ -821,6 +846,9 @@
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D14" s="4">
+        <v>2500</v>
+      </c>
       <c r="E14" s="1">
         <v>12</v>
       </c>
@@ -844,6 +872,9 @@
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D15" s="4">
+        <v>500</v>
+      </c>
       <c r="E15" s="1">
         <v>12</v>
       </c>
@@ -867,6 +898,9 @@
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D16" s="4">
+        <v>2500</v>
+      </c>
       <c r="E16" s="1">
         <v>18</v>
       </c>
@@ -890,6 +924,9 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D17" s="4">
+        <v>500</v>
+      </c>
       <c r="E17" s="1">
         <v>18</v>
       </c>
@@ -913,6 +950,9 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D18" s="4">
+        <v>2500</v>
+      </c>
       <c r="E18" s="1">
         <v>24</v>
       </c>
@@ -936,6 +976,9 @@
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D19" s="4">
+        <v>500</v>
+      </c>
       <c r="E19" s="1">
         <v>24</v>
       </c>
@@ -959,6 +1002,9 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D20" s="4">
+        <v>300</v>
+      </c>
       <c r="E20" s="1">
         <v>24</v>
       </c>
@@ -982,6 +1028,9 @@
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D21" s="4">
+        <v>2500</v>
+      </c>
       <c r="E21" s="1">
         <v>36</v>
       </c>
@@ -1005,6 +1054,9 @@
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D22" s="4">
+        <v>500</v>
+      </c>
       <c r="E22" s="1">
         <v>36</v>
       </c>
@@ -1027,6 +1079,9 @@
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D23" s="4">
+        <v>300</v>
       </c>
       <c r="E23" s="1">
         <v>36</v>

--- a/depozitiSTB.xlsx
+++ b/depozitiSTB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\React-Plus\NBRM CREDIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A725729A-9FC2-4D18-AD33-731F4EC4C433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB9C395-365B-46E4-B7A8-4D7815AC4C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30D3EA2A-2539-4497-A6BB-610141DD767C}"/>
   </bookViews>
@@ -77,13 +77,13 @@
 без можност за превремено повлекување средства, без можност за дополнителна уплата на средства</t>
   </si>
   <si>
-    <t>ДЕН</t>
-  </si>
-  <si>
     <t>ЕУР</t>
   </si>
   <si>
     <t>УСД</t>
+  </si>
+  <si>
+    <t>МКД</t>
   </si>
 </sst>
 </file>
@@ -162,14 +162,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -489,7 +488,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>2500</v>
@@ -558,7 +557,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>500</v>
@@ -584,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>300</v>
@@ -610,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>2500</v>
@@ -636,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -662,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>300</v>
@@ -688,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>2500</v>
@@ -714,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>500</v>
@@ -740,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>300</v>
@@ -766,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>2500</v>
@@ -792,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
         <v>500</v>
@@ -818,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
         <v>300</v>
@@ -844,9 +843,9 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
         <v>2500</v>
       </c>
       <c r="E14" s="1">
@@ -870,9 +869,9 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
         <v>500</v>
       </c>
       <c r="E15" s="1">
@@ -896,9 +895,9 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
         <v>2500</v>
       </c>
       <c r="E16" s="1">
@@ -922,9 +921,9 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
         <v>500</v>
       </c>
       <c r="E17" s="1">
@@ -948,9 +947,9 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
         <v>2500</v>
       </c>
       <c r="E18" s="1">
@@ -974,9 +973,9 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
         <v>500</v>
       </c>
       <c r="E19" s="1">
@@ -1000,9 +999,9 @@
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
         <v>300</v>
       </c>
       <c r="E20" s="1">
@@ -1026,9 +1025,9 @@
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
         <v>2500</v>
       </c>
       <c r="E21" s="1">
@@ -1052,9 +1051,9 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
         <v>500</v>
       </c>
       <c r="E22" s="1">
@@ -1078,9 +1077,9 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="4">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
         <v>300</v>
       </c>
       <c r="E23" s="1">

--- a/depozitiSTB.xlsx
+++ b/depozitiSTB.xlsx
@@ -1,33 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\React-Plus\NBRM CREDIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user.DESKTOP-4ISV14N\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB9C395-365B-46E4-B7A8-4D7815AC4C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30D3EA2A-2539-4497-A6BB-610141DD767C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,12 +26,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="16">
   <si>
+    <t>Банка</t>
+  </si>
+  <si>
+    <t>Тип на каматна стапка</t>
+  </si>
+  <si>
     <t>Валута</t>
   </si>
   <si>
-    <t>Тип на каматна стапка</t>
-  </si>
-  <si>
     <t>Максимален износ</t>
   </si>
   <si>
@@ -57,46 +50,50 @@
     <t>линк до податоците за депозитот</t>
   </si>
   <si>
-    <t>Банка</t>
-  </si>
-  <si>
     <t>Стопанска Банка АД СКопје</t>
   </si>
   <si>
+    <t>Варијабилна</t>
+  </si>
+  <si>
+    <t>МКД</t>
+  </si>
+  <si>
     <t>месечна исплата, можност за предвремено разорочување, без можност за превремено повлекување средства, без можност за дополнителна уплата на средства</t>
   </si>
   <si>
-    <t>Фиксна</t>
-  </si>
-  <si>
     <t>https://www.stb.com.mk/media/4548/%D1%82%D0%B0%D0%B1%D0%B5%D0%BB%D0%B8-%D0%B7%D0%B0-%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8-%D0%B8-%D0%B4%D0%B5%D0%BF%D0%BE%D0%B7%D0%B8%D1%82%D0%B8-%D1%81%D0%BE-%D0%B4%D0%BE%D0%BF%D0%BE%D0%BB%D0%BD%D1%83%D0%B2%D0%B0nj%D0%B0-01-05-2025.xlsx</t>
+  </si>
+  <si>
+    <t>ЕУР</t>
+  </si>
+  <si>
+    <t>УСД</t>
   </si>
   <si>
     <t xml:space="preserve"> - месечна капитализација на каматата кон вогот или
  - без капитализација на камата, со месечна исплата на камата
 без можност за превремено повлекување средства, без можност за дополнителна уплата на средства</t>
-  </si>
-  <si>
-    <t>ЕУР</t>
-  </si>
-  <si>
-    <t>УСД</t>
-  </si>
-  <si>
-    <t>МКД</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,24 +153,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E71440FC-B66E-40A3-855A-E6F510C0AAA6}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,54 +482,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EF7C2F-C182-4771-86A7-BE3F6AF41BE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>2500</v>
@@ -543,18 +542,18 @@
         <v>0.01</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -569,18 +568,18 @@
         <v>0.01</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -595,21 +594,21 @@
         <v>0.01</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>2500</v>
@@ -621,18 +620,18 @@
         <v>0.04</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -647,18 +646,18 @@
         <v>0.01</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -673,21 +672,21 @@
         <v>0.01</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>2500</v>
@@ -699,18 +698,18 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -725,18 +724,18 @@
         <v>0.01</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -751,21 +750,21 @@
         <v>0.01</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>2500</v>
@@ -777,18 +776,18 @@
         <v>0.35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -803,18 +802,18 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -829,21 +828,21 @@
         <v>0.1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D14" s="1">
         <v>2500</v>
@@ -855,18 +854,18 @@
         <v>0.46</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -881,21 +880,21 @@
         <v>0.23</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D16" s="1">
         <v>2500</v>
@@ -907,18 +906,18 @@
         <v>0.9</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -933,21 +932,21 @@
         <v>0.36</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D18" s="1">
         <v>2500</v>
@@ -959,18 +958,18 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -985,18 +984,18 @@
         <v>0.4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1011,21 +1010,21 @@
         <v>0.2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D21" s="1">
         <v>2500</v>
@@ -1037,18 +1036,18 @@
         <v>1.3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -1063,18 +1062,18 @@
         <v>0.5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
@@ -1089,10 +1088,10 @@
         <v>0.3</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
